--- a/results/FrequencyTables/26581162_sg107R.xlsx
+++ b/results/FrequencyTables/26581162_sg107R.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00254452926208651</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="D2">
-        <v>0.989795918367347</v>
+        <v>0.964376590330789</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.00381679389312977</v>
       </c>
       <c r="F2">
-        <v>0.0102040816326531</v>
+        <v>0.0190839694656489</v>
       </c>
       <c r="G2">
-        <v>0.0714285714285714</v>
+        <v>0.0279898218829517</v>
       </c>
       <c r="H2">
-        <v>0.602040816326531</v>
+        <v>0.624681933842239</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="J2">
-        <v>0.0306122448979592</v>
+        <v>0.0190839694656489</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.991094147582697</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00508905852417303</v>
       </c>
       <c r="M2">
-        <v>0.989795918367347</v>
+        <v>0.982188295165394</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.836734693877551</v>
+        <v>0.786259541984733</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0102040816326531</v>
+        <v>0.00254452926208651</v>
       </c>
       <c r="R2">
-        <v>0.0102040816326531</v>
+        <v>0.0178117048346056</v>
       </c>
       <c r="S2">
-        <v>0.928571428571429</v>
+        <v>0.860050890585242</v>
       </c>
       <c r="T2">
-        <v>0.0204081632653061</v>
+        <v>0.0127226463104326</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="V2">
-        <v>0.0408163265306122</v>
+        <v>0.0381679389312977</v>
       </c>
       <c r="W2">
-        <v>0.846938775510204</v>
+        <v>0.834605597964377</v>
       </c>
       <c r="X2">
-        <v>0.0102040816326531</v>
+        <v>0.00636132315521628</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.989795918367347</v>
+        <v>0.977099236641221</v>
       </c>
       <c r="C3">
-        <v>0.989795918367347</v>
+        <v>0.974554707379135</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00381679389312977</v>
       </c>
       <c r="E3">
-        <v>0.0102040816326531</v>
+        <v>0.00381679389312977</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.00254452926208651</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.00254452926208651</v>
       </c>
       <c r="H3">
-        <v>0.0102040816326531</v>
+        <v>0.0674300254452926</v>
       </c>
       <c r="I3">
-        <v>0.275510204081633</v>
+        <v>0.371501272264631</v>
       </c>
       <c r="J3">
-        <v>0.86734693877551</v>
+        <v>0.909669211195929</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00508905852417303</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="O3">
-        <v>0.0102040816326531</v>
+        <v>0.0190839694656489</v>
       </c>
       <c r="P3">
-        <v>0.173469387755102</v>
+        <v>0.187022900763359</v>
       </c>
       <c r="Q3">
-        <v>0.969387755102041</v>
+        <v>0.972010178117048</v>
       </c>
       <c r="R3">
-        <v>0.989795918367347</v>
+        <v>0.975826972010178</v>
       </c>
       <c r="S3">
-        <v>0.0612244897959184</v>
+        <v>0.110687022900763</v>
       </c>
       <c r="T3">
-        <v>0.897959183673469</v>
+        <v>0.924936386768448</v>
       </c>
       <c r="U3">
-        <v>0.0204081632653061</v>
+        <v>0.0229007633587786</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00254452926208651</v>
       </c>
       <c r="X3">
-        <v>0.846938775510204</v>
+        <v>0.837150127226463</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,25 +613,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0102040816326531</v>
+        <v>0.0152671755725191</v>
       </c>
       <c r="C4">
-        <v>0.0102040816326531</v>
+        <v>0.0229007633587786</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.00636132315521628</v>
       </c>
       <c r="E4">
-        <v>0.979591836734694</v>
+        <v>0.970737913486005</v>
       </c>
       <c r="F4">
-        <v>0.989795918367347</v>
+        <v>0.977099236641221</v>
       </c>
       <c r="G4">
-        <v>0.928571428571429</v>
+        <v>0.968193384223919</v>
       </c>
       <c r="H4">
-        <v>0.387755102040816</v>
+        <v>0.306615776081425</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -640,46 +640,46 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.00254452926208651</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.993638676844784</v>
       </c>
       <c r="M4">
-        <v>0.0102040816326531</v>
+        <v>0.0178117048346056</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00254452926208651</v>
       </c>
       <c r="O4">
-        <v>0.0204081632653061</v>
+        <v>0.0190839694656489</v>
       </c>
       <c r="P4">
-        <v>0.0204081632653061</v>
+        <v>0.0139949109414758</v>
       </c>
       <c r="Q4">
-        <v>0.0204081632653061</v>
+        <v>0.0203562340966921</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00508905852417303</v>
       </c>
       <c r="S4">
-        <v>0.0102040816326531</v>
+        <v>0.0241730279898219</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="V4">
-        <v>0.938775510204082</v>
+        <v>0.932569974554707</v>
       </c>
       <c r="W4">
-        <v>0.0204081632653061</v>
+        <v>0.0241730279898219</v>
       </c>
       <c r="X4">
-        <v>0.122448979591837</v>
+        <v>0.146310432569975</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,16 +687,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.00508905852417303</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="D5">
-        <v>0.0102040816326531</v>
+        <v>0.0254452926208651</v>
       </c>
       <c r="E5">
-        <v>0.0102040816326531</v>
+        <v>0.0216284987277354</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="I5">
-        <v>0.724489795918367</v>
+        <v>0.627226463104326</v>
       </c>
       <c r="J5">
-        <v>0.102040816326531</v>
+        <v>0.0687022900763359</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -723,37 +723,37 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.99618320610687</v>
       </c>
       <c r="O5">
-        <v>0.13265306122449</v>
+        <v>0.175572519083969</v>
       </c>
       <c r="P5">
-        <v>0.806122448979592</v>
+        <v>0.798982188295165</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.00381679389312977</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.00127226463104326</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00508905852417303</v>
       </c>
       <c r="T5">
-        <v>0.0816326530612245</v>
+        <v>0.0610687022900763</v>
       </c>
       <c r="U5">
-        <v>0.979591836734694</v>
+        <v>0.974554707379135</v>
       </c>
       <c r="V5">
-        <v>0.0204081632653061</v>
+        <v>0.0292620865139949</v>
       </c>
       <c r="W5">
-        <v>0.13265306122449</v>
+        <v>0.138676844783715</v>
       </c>
       <c r="X5">
-        <v>0.0204081632653061</v>
+        <v>0.0101781170483461</v>
       </c>
     </row>
   </sheetData>
